--- a/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - WZ.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - WZ.xlsx
@@ -12,10 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="59">
   <si>
-    <t>Index of wholesale prices (incl. rates of change): Germany,
-months, economic activities (WZ2008 3-5 digit codes)</t>
+    <t>Index of wholesale prices: Germany, months, economic
+activities (WZ2008 3-5 digit codes)</t>
   </si>
   <si>
     <t>Index of selling prices in wholesale trade</t>
@@ -194,7 +194,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:08:23</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:46:59</t>
   </si>
 </sst>
 </file>
@@ -12246,14 +12246,14 @@
       <c r="LP9" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="LQ9" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LR9" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LS9" t="s" s="10">
-        <v>50</v>
+      <c r="LQ9" t="n" s="10">
+        <v>118.6</v>
+      </c>
+      <c r="LR9" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="LS9" t="n" s="10">
+        <v>124.7</v>
       </c>
       <c r="LT9" t="s" s="10">
         <v>50</v>
@@ -13262,14 +13262,14 @@
       <c r="LP10" t="n" s="10">
         <v>1.6</v>
       </c>
-      <c r="LQ10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LR10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LS10" t="s" s="10">
-        <v>50</v>
+      <c r="LQ10" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="LR10" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="LS10" t="n" s="10">
+        <v>2.1</v>
       </c>
       <c r="LT10" t="s" s="10">
         <v>50</v>
@@ -14278,14 +14278,14 @@
       <c r="LP11" t="n" s="10">
         <v>8.4</v>
       </c>
-      <c r="LQ11" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LR11" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LS11" t="s" s="10">
-        <v>50</v>
+      <c r="LQ11" t="n" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="LR11" t="n" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="LS11" t="n" s="10">
+        <v>13.6</v>
       </c>
       <c r="LT11" t="s" s="10">
         <v>50</v>
@@ -15299,14 +15299,14 @@
       <c r="LP13" t="n" s="10">
         <v>148.0</v>
       </c>
-      <c r="LQ13" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LR13" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LS13" t="s" s="10">
-        <v>50</v>
+      <c r="LQ13" t="n" s="10">
+        <v>186.9</v>
+      </c>
+      <c r="LR13" t="n" s="10">
+        <v>180.4</v>
+      </c>
+      <c r="LS13" t="n" s="10">
+        <v>184.9</v>
       </c>
       <c r="LT13" t="s" s="10">
         <v>50</v>
@@ -16315,14 +16315,14 @@
       <c r="LP14" t="n" s="10">
         <v>5.1</v>
       </c>
-      <c r="LQ14" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LR14" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LS14" t="s" s="10">
-        <v>50</v>
+      <c r="LQ14" t="n" s="10">
+        <v>26.3</v>
+      </c>
+      <c r="LR14" t="n" s="10">
+        <v>-3.5</v>
+      </c>
+      <c r="LS14" t="n" s="10">
+        <v>2.5</v>
       </c>
       <c r="LT14" t="s" s="10">
         <v>50</v>
@@ -17331,14 +17331,14 @@
       <c r="LP15" t="n" s="10">
         <v>43.5</v>
       </c>
-      <c r="LQ15" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LR15" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LS15" t="s" s="10">
-        <v>50</v>
+      <c r="LQ15" t="n" s="10">
+        <v>70.1</v>
+      </c>
+      <c r="LR15" t="n" s="10">
+        <v>63.4</v>
+      </c>
+      <c r="LS15" t="n" s="10">
+        <v>63.6</v>
       </c>
       <c r="LT15" t="s" s="10">
         <v>50</v>
@@ -17441,7 +17441,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:08:28&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:47:04&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - WZ.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - WZ.xlsx
@@ -194,7 +194,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:46:59</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:58:09</t>
   </si>
 </sst>
 </file>
@@ -17441,7 +17441,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:47:04&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:58:14&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>